--- a/scraped-data.xlsx
+++ b/scraped-data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="187">
   <si>
     <t>Title</t>
   </si>
@@ -230,6 +230,348 @@
   </si>
   <si>
     <t>/detail/prodej/byt/2+1/most-most-1--maje/688117324</t>
+  </si>
+  <si>
+    <t>Josefa Ševčíka, Most</t>
+  </si>
+  <si>
+    <t>1389000</t>
+  </si>
+  <si>
+    <t>/detail/prodej/byt/3+1/most-most-josefa-sevcika/2553382220</t>
+  </si>
+  <si>
+    <t>Prodej bytu 3+1 76 m²</t>
+  </si>
+  <si>
+    <t>2770000</t>
+  </si>
+  <si>
+    <t>/detail/prodej/byt/3+1/most-most-/2014705228</t>
+  </si>
+  <si>
+    <t>Prodej bytu 3+kk 56 m²</t>
+  </si>
+  <si>
+    <t>/detail/prodej/byt/3+kk/most-most-jana-kubelika/783692</t>
+  </si>
+  <si>
+    <t>Prodej bytu 3+1 55 m²</t>
+  </si>
+  <si>
+    <t>K. H. Borovského, Most</t>
+  </si>
+  <si>
+    <t>/detail/prodej/byt/3+1/most-most-k--h--borovskeho/2688238668</t>
+  </si>
+  <si>
+    <t>Prodej bytu 3+1 71 m²</t>
+  </si>
+  <si>
+    <t>Zdeňka Fibicha, Most</t>
+  </si>
+  <si>
+    <t>1845000</t>
+  </si>
+  <si>
+    <t>/detail/prodej/byt/3+1/most-most-zdenka-fibicha/953546060</t>
+  </si>
+  <si>
+    <t>Prodej bytu 2+kk 53 m²</t>
+  </si>
+  <si>
+    <t>800000</t>
+  </si>
+  <si>
+    <t>/detail/prodej/byt/2+kk/most-most-tr--budovatelu/3558249804</t>
+  </si>
+  <si>
+    <t>Prodej bytu 1+kk 33 m²</t>
+  </si>
+  <si>
+    <t>Růžová, Most</t>
+  </si>
+  <si>
+    <t>1149000</t>
+  </si>
+  <si>
+    <t>/detail/prodej/byt/1+kk/most-most-ruzova/4026504524</t>
+  </si>
+  <si>
+    <t>Jaroslava Ježka, Most</t>
+  </si>
+  <si>
+    <t>1737777</t>
+  </si>
+  <si>
+    <t>/detail/prodej/byt/3+1/most-most-jaroslava-jezka/1098536012</t>
+  </si>
+  <si>
+    <t>Prodej bytu 2+1 55 m²</t>
+  </si>
+  <si>
+    <t>Čsl. armády, Most</t>
+  </si>
+  <si>
+    <t>1540000</t>
+  </si>
+  <si>
+    <t>/detail/prodej/byt/2+1/most-most-csl--armady/3957716300</t>
+  </si>
+  <si>
+    <t>1700000</t>
+  </si>
+  <si>
+    <t>/detail/prodej/byt/3+1/most-most-u-vezovych-domu/4091409740</t>
+  </si>
+  <si>
+    <t>/detail/prodej/byt/3+1/most-most-brnenska/3038693196</t>
+  </si>
+  <si>
+    <t>Františka Malíka, Most</t>
+  </si>
+  <si>
+    <t>/detail/prodej/byt/3+1/most-most-frantiska-malika/440792396</t>
+  </si>
+  <si>
+    <t>Prodej bytu 2+1 52 m²</t>
+  </si>
+  <si>
+    <t>879000</t>
+  </si>
+  <si>
+    <t>/detail/prodej/byt/2+1/most-most-tr--budovatelu/2334929996</t>
+  </si>
+  <si>
+    <t>Prodej bytu 3+1 69 m²</t>
+  </si>
+  <si>
+    <t>/detail/prodej/byt/3+1/most-most-josefa-sevcika/3806811212</t>
+  </si>
+  <si>
+    <t>Prodej bytu 2+1 65 m²</t>
+  </si>
+  <si>
+    <t>1399000</t>
+  </si>
+  <si>
+    <t>/detail/prodej/byt/2+1/most-most-josefa-skupy/1741390924</t>
+  </si>
+  <si>
+    <t>Prodej bytu 1+1 33 m²</t>
+  </si>
+  <si>
+    <t>990000</t>
+  </si>
+  <si>
+    <t>/detail/prodej/byt/1+1/most-most-ruzova/845055308</t>
+  </si>
+  <si>
+    <t>Prodej bytu 3+1 65 m²</t>
+  </si>
+  <si>
+    <t>Česká, Most</t>
+  </si>
+  <si>
+    <t>1799000</t>
+  </si>
+  <si>
+    <t>/detail/prodej/byt/3+1/most-most-ceska/906208588</t>
+  </si>
+  <si>
+    <t>Prodej bytu 4+1 83 m²</t>
+  </si>
+  <si>
+    <t>Kpt. Jaroše, Most</t>
+  </si>
+  <si>
+    <t>2496000</t>
+  </si>
+  <si>
+    <t>/detail/prodej/byt/4+1/most-most-kpt--jarose/1283163468</t>
+  </si>
+  <si>
+    <t>Prodej bytu 4+1 97 m²</t>
+  </si>
+  <si>
+    <t>1909000</t>
+  </si>
+  <si>
+    <t>/detail/prodej/byt/4+1/most-most-frantiska-malika/442230092</t>
+  </si>
+  <si>
+    <t>989000</t>
+  </si>
+  <si>
+    <t>/detail/prodej/byt/2+1/most-most-tr--budovatelu/1784407372</t>
+  </si>
+  <si>
+    <t>M. G. Dobnera, Most</t>
+  </si>
+  <si>
+    <t>1500000</t>
+  </si>
+  <si>
+    <t>/detail/prodej/byt/3+1/most-most-m--g--dobnera/1349813580</t>
+  </si>
+  <si>
+    <t>Prodej bytu 3+1 61 m²</t>
+  </si>
+  <si>
+    <t>1359000</t>
+  </si>
+  <si>
+    <t>/detail/prodej/byt/3+1/most-most-u-vezovych-domu/796325196</t>
+  </si>
+  <si>
+    <t>Prodej bytu 3+kk 62 m²</t>
+  </si>
+  <si>
+    <t>1116000</t>
+  </si>
+  <si>
+    <t>/detail/prodej/byt/3+kk/most-most-ceska/2233988428</t>
+  </si>
+  <si>
+    <t>Prodej bytu 2+1 57 m²</t>
+  </si>
+  <si>
+    <t>Vítězslava Nezvala, Most</t>
+  </si>
+  <si>
+    <t>2380000</t>
+  </si>
+  <si>
+    <t>/detail/prodej/byt/2+1/most-most-vitezslava-nezvala/2257360204</t>
+  </si>
+  <si>
+    <t>Jaroslava Haška, Most</t>
+  </si>
+  <si>
+    <t>/detail/prodej/byt/3+1/most-most-jaroslava-haska/3079730508</t>
+  </si>
+  <si>
+    <t>Prodej bytu 1+1 36 m²</t>
+  </si>
+  <si>
+    <t>550000</t>
+  </si>
+  <si>
+    <t>/detail/prodej/byt/1+1/most-most-tr--budovatelu/2569073996</t>
+  </si>
+  <si>
+    <t>/detail/prodej/byt/2+1/most-most-jaroslava-vrchlickeho/3034412108</t>
+  </si>
+  <si>
+    <t>Prodej bytu 1+1 35 m²</t>
+  </si>
+  <si>
+    <t>730000</t>
+  </si>
+  <si>
+    <t>/detail/prodej/byt/1+1/most-most-jaroslava-vrchlickeho/1475953740</t>
+  </si>
+  <si>
+    <t>Moskevská, Most</t>
+  </si>
+  <si>
+    <t>1250000</t>
+  </si>
+  <si>
+    <t>/detail/prodej/byt/3+1/most-most-moskevska/2685662540</t>
+  </si>
+  <si>
+    <t>U Stadionu, Most</t>
+  </si>
+  <si>
+    <t>1680000</t>
+  </si>
+  <si>
+    <t>/detail/prodej/byt/3+1/most-most-u-stadionu/3979605324</t>
+  </si>
+  <si>
+    <t>Slovenského národního povstání, Most</t>
+  </si>
+  <si>
+    <t>/detail/prodej/byt/2+1/most-most-slovenskeho-narodniho-povstani/1375532364</t>
+  </si>
+  <si>
+    <t>Maxe Švabinského, Most</t>
+  </si>
+  <si>
+    <t>1795000</t>
+  </si>
+  <si>
+    <t>/detail/prodej/byt/2+1/most-most-maxe-svabinskeho/3892872524</t>
+  </si>
+  <si>
+    <t>Prodej bytu 2+1 56 m²</t>
+  </si>
+  <si>
+    <t>1249900</t>
+  </si>
+  <si>
+    <t>/detail/prodej/byt/2+1/most-most-zdenka-fibicha/1682765132</t>
+  </si>
+  <si>
+    <t>Táboritů, Most</t>
+  </si>
+  <si>
+    <t>/detail/prodej/byt/1+1/most-most-taboritu/3615290700</t>
+  </si>
+  <si>
+    <t>Prodej bytu 3+1 67 m²</t>
+  </si>
+  <si>
+    <t>1999900</t>
+  </si>
+  <si>
+    <t>/detail/prodej/byt/3+1/most-most-ceska/919598412</t>
+  </si>
+  <si>
+    <t>Prodej bytu 3+1 80 m²</t>
+  </si>
+  <si>
+    <t>/detail/prodej/byt/3+1/most-most-tr--budovatelu/659854668</t>
+  </si>
+  <si>
+    <t>Prodej bytu 3+1 62 m²</t>
+  </si>
+  <si>
+    <t>Lidická, Most</t>
+  </si>
+  <si>
+    <t>1350000</t>
+  </si>
+  <si>
+    <t>/detail/prodej/byt/3+1/most-most-lidicka/804123980</t>
+  </si>
+  <si>
+    <t>Rozmarýnová, Most</t>
+  </si>
+  <si>
+    <t>995000</t>
+  </si>
+  <si>
+    <t>/detail/prodej/byt/1+1/most-most-rozmarynova/1010693452</t>
+  </si>
+  <si>
+    <t>Antonína Dvořáka, Most</t>
+  </si>
+  <si>
+    <t>1550000</t>
+  </si>
+  <si>
+    <t>/detail/prodej/byt/2+1/most-most-antonina-dvoraka/428799308</t>
+  </si>
+  <si>
+    <t>Prodej bytu 1+kk 22 m²</t>
+  </si>
+  <si>
+    <t>850000</t>
+  </si>
+  <si>
+    <t>/detail/prodej/byt/1+kk/most-most-u-vezovych-domu/2012149068</t>
   </si>
 </sst>
 </file>
@@ -606,7 +948,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D61"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="30" customWidth="1"/>
@@ -908,6 +1250,566 @@
         <v>72</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" t="s">
+        <v>154</v>
+      </c>
+      <c r="D50" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" t="s">
+        <v>157</v>
+      </c>
+      <c r="D51" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>159</v>
+      </c>
+      <c r="C52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" t="s">
+        <v>162</v>
+      </c>
+      <c r="D53" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>164</v>
+      </c>
+      <c r="B54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" t="s">
+        <v>165</v>
+      </c>
+      <c r="D54" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>150</v>
+      </c>
+      <c r="B55" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>169</v>
+      </c>
+      <c r="B56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" t="s">
+        <v>170</v>
+      </c>
+      <c r="D56" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>172</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>174</v>
+      </c>
+      <c r="B58" t="s">
+        <v>175</v>
+      </c>
+      <c r="C58" t="s">
+        <v>176</v>
+      </c>
+      <c r="D58" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>150</v>
+      </c>
+      <c r="B59" t="s">
+        <v>178</v>
+      </c>
+      <c r="C59" t="s">
+        <v>179</v>
+      </c>
+      <c r="D59" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>164</v>
+      </c>
+      <c r="B60" t="s">
+        <v>181</v>
+      </c>
+      <c r="C60" t="s">
+        <v>182</v>
+      </c>
+      <c r="D60" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>184</v>
+      </c>
+      <c r="B61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" t="s">
+        <v>185</v>
+      </c>
+      <c r="D61" t="s">
+        <v>186</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
